--- a/projetS5/public/INFO/2018-2019/INFO1/S1/UE11/PT1.xlsx
+++ b/projetS5/public/INFO/2018-2019/INFO1/S1/UE11/PT1.xlsx
@@ -41,7 +41,7 @@
     <t>Geoffrey</t>
   </si>
   <si>
-    <t>2-B</t>
+    <t>1-B</t>
   </si>
   <si>
     <t>BIGARD</t>
@@ -50,7 +50,7 @@
     <t>Samuel</t>
   </si>
   <si>
-    <t>2-C</t>
+    <t>1-C</t>
   </si>
   <si>
     <t>BISSON</t>
@@ -59,7 +59,7 @@
     <t>Julien</t>
   </si>
   <si>
-    <t>2-A</t>
+    <t>1-A</t>
   </si>
   <si>
     <t>BONTE</t>
@@ -732,7 +732,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20150926</v>
+        <v>20170926</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -744,12 +744,12 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20150927</v>
+        <v>20170927</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -761,12 +761,12 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20150928</v>
+        <v>20170928</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -778,12 +778,12 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20150929</v>
+        <v>20170929</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -795,12 +795,12 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20150930</v>
+        <v>20170930</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -812,12 +812,12 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20150931</v>
+        <v>20170931</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20150932</v>
+        <v>20170932</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -846,12 +846,12 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20150933</v>
+        <v>20170933</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -863,12 +863,12 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20150934</v>
+        <v>20170934</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -880,12 +880,12 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20150935</v>
+        <v>20170935</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -897,12 +897,12 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20150936</v>
+        <v>20170936</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20150937</v>
+        <v>20170937</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -931,12 +931,12 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20150938</v>
+        <v>20170938</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -948,12 +948,12 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20150939</v>
+        <v>20170939</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -965,12 +965,12 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20150940</v>
+        <v>20170940</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -982,12 +982,12 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20150941</v>
+        <v>20170941</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -999,12 +999,12 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20150942</v>
+        <v>20170942</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -1016,12 +1016,12 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20150943</v>
+        <v>20170943</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -1033,12 +1033,12 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20150944</v>
+        <v>20170944</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -1050,12 +1050,12 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20150945</v>
+        <v>20170945</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -1067,12 +1067,12 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20150946</v>
+        <v>20170946</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -1084,12 +1084,12 @@
         <v>14</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20150947</v>
+        <v>20170947</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -1101,12 +1101,12 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20150948</v>
+        <v>20170948</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1118,12 +1118,12 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20150949</v>
+        <v>20170949</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -1135,12 +1135,12 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20150950</v>
+        <v>20170950</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -1152,12 +1152,12 @@
         <v>14</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20150951</v>
+        <v>20170951</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1169,12 +1169,12 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20150952</v>
+        <v>20170952</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1186,12 +1186,12 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20150953</v>
+        <v>20170953</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1203,12 +1203,12 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20150954</v>
+        <v>20170954</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -1220,12 +1220,12 @@
         <v>14</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20150955</v>
+        <v>20170955</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -1237,12 +1237,12 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20150956</v>
+        <v>20170956</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20150957</v>
+        <v>20170957</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1271,12 +1271,12 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20150958</v>
+        <v>20170958</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -1288,12 +1288,12 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20150959</v>
+        <v>20170959</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -1305,12 +1305,12 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20150960</v>
+        <v>20170960</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
@@ -1322,12 +1322,12 @@
         <v>14</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20150961</v>
+        <v>20170961</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -1339,12 +1339,12 @@
         <v>14</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20150962</v>
+        <v>20170962</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
@@ -1356,12 +1356,12 @@
         <v>14</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20150963</v>
+        <v>20170963</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -1373,12 +1373,12 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20150964</v>
+        <v>20170964</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -1390,12 +1390,12 @@
         <v>14</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20150965</v>
+        <v>20170965</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
@@ -1407,12 +1407,12 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20150966</v>
+        <v>20170966</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -1424,12 +1424,12 @@
         <v>14</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20150967</v>
+        <v>20170967</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -1441,12 +1441,12 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20150968</v>
+        <v>20170968</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
@@ -1458,12 +1458,12 @@
         <v>11</v>
       </c>
       <c r="E45">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20150969</v>
+        <v>20170969</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -1475,12 +1475,12 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20150970</v>
+        <v>20170970</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -1492,12 +1492,12 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20150971</v>
+        <v>20170971</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
@@ -1509,12 +1509,12 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20150972</v>
+        <v>20170972</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -1526,12 +1526,12 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20150973</v>
+        <v>20170973</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
@@ -1543,12 +1543,12 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20150974</v>
+        <v>20170974</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -1560,12 +1560,12 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20150975</v>
+        <v>20170975</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
@@ -1577,12 +1577,12 @@
         <v>14</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20150976</v>
+        <v>20170976</v>
       </c>
       <c r="B53" t="s">
         <v>96</v>
@@ -1594,12 +1594,12 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20150977</v>
+        <v>20170977</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
@@ -1611,12 +1611,12 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20150978</v>
+        <v>20170978</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
@@ -1628,12 +1628,12 @@
         <v>11</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20150979</v>
+        <v>20170979</v>
       </c>
       <c r="B56" t="s">
         <v>101</v>
@@ -1645,12 +1645,12 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20150980</v>
+        <v>20170980</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20150981</v>
+        <v>20170981</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
@@ -1679,12 +1679,12 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20150982</v>
+        <v>20170982</v>
       </c>
       <c r="B59" t="s">
         <v>105</v>
@@ -1696,12 +1696,12 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20150983</v>
+        <v>20170983</v>
       </c>
       <c r="B60" t="s">
         <v>107</v>
@@ -1713,12 +1713,12 @@
         <v>14</v>
       </c>
       <c r="E60">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20150984</v>
+        <v>20170984</v>
       </c>
       <c r="B61" t="s">
         <v>108</v>
@@ -1730,12 +1730,12 @@
         <v>11</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20150985</v>
+        <v>20170985</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
@@ -1747,12 +1747,12 @@
         <v>14</v>
       </c>
       <c r="E62">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20150986</v>
+        <v>20170986</v>
       </c>
       <c r="B63" t="s">
         <v>112</v>
@@ -1764,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/projetS5/public/INFO/2018-2019/INFO1/S1/UE11/PT1.xlsx
+++ b/projetS5/public/INFO/2018-2019/INFO1/S1/UE11/PT1.xlsx
@@ -1,32 +1,375 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdcde\3D Objects\GestionEtudiants2018-c38d9860048bc0de21648e11eae4feffc2b193e1-c38d9860048bc0de21648e11eae4feffc2b193e1\projetS5\public\INFO\2018-2019\INFO1\S1\UE11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDFFB99-47C7-4952-9DD2-158012EA10D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PT1" sheetId="1" r:id="rId4"/>
+    <sheet name="PT1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>Moyenne de l'étudiant</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>BAUDELET</t>
+  </si>
+  <si>
+    <t>Geoffrey</t>
+  </si>
+  <si>
+    <t>1-B</t>
+  </si>
+  <si>
+    <t>BIGARD</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>1-C</t>
+  </si>
+  <si>
+    <t>BISSON</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>1-A</t>
+  </si>
+  <si>
+    <t>BONTE</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>BOULNOIS</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>CHATELET</t>
+  </si>
+  <si>
+    <t>Hadrien</t>
+  </si>
+  <si>
+    <t>CLEROT</t>
+  </si>
+  <si>
+    <t>Jérémy</t>
+  </si>
+  <si>
+    <t>CORNU</t>
+  </si>
+  <si>
+    <t>Bastien</t>
+  </si>
+  <si>
+    <t>DACHY</t>
+  </si>
+  <si>
+    <t>Remy</t>
+  </si>
+  <si>
+    <t>DANGLETERRE</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>DEBACKER</t>
+  </si>
+  <si>
+    <t>DELBREUVE</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>DEROSNE</t>
+  </si>
+  <si>
+    <t>Florentin</t>
+  </si>
+  <si>
+    <t>DUHAUT</t>
+  </si>
+  <si>
+    <t>DUMETZ</t>
+  </si>
+  <si>
+    <t>Joffrey</t>
+  </si>
+  <si>
+    <t>FEVRIER</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>FORGET</t>
+  </si>
+  <si>
+    <t>Kévin</t>
+  </si>
+  <si>
+    <t>FROISSART</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>FRUY</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>GEERAERT</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>GREMBER</t>
+  </si>
+  <si>
+    <t>HENNAUT</t>
+  </si>
+  <si>
+    <t>Thibaut</t>
+  </si>
+  <si>
+    <t>KURZAWSKI</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>LAMBERSENS</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>LE FOLL</t>
+  </si>
+  <si>
+    <t>Coralie</t>
+  </si>
+  <si>
+    <t>LECHA</t>
+  </si>
+  <si>
+    <t>LEFAIT</t>
+  </si>
+  <si>
+    <t>Romain</t>
+  </si>
+  <si>
+    <t>LEFEBVRE</t>
+  </si>
+  <si>
+    <t>Jéremy</t>
+  </si>
+  <si>
+    <t>LEGRAND</t>
+  </si>
+  <si>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>LEGRU</t>
+  </si>
+  <si>
+    <t>Florent</t>
+  </si>
+  <si>
+    <t>LEMAITRE</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>LESAFFRE</t>
+  </si>
+  <si>
+    <t>LETERTRE</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>LONGOUR</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>LOOPE</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>MAERTEN</t>
+  </si>
+  <si>
+    <t>MAILLOT</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>MASSELOT</t>
+  </si>
+  <si>
+    <t>MERLIN</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>POLAN</t>
+  </si>
+  <si>
+    <t>POUILLY</t>
+  </si>
+  <si>
+    <t>Gaetan</t>
+  </si>
+  <si>
+    <t>ROLAND</t>
+  </si>
+  <si>
+    <t>Jeremie</t>
+  </si>
+  <si>
+    <t>ROTTIERS</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>SACRE</t>
+  </si>
+  <si>
+    <t>SCHILLER</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>SURET</t>
+  </si>
+  <si>
+    <t>SZKARADEK</t>
+  </si>
+  <si>
+    <t>Thibaud</t>
+  </si>
+  <si>
+    <t>SZYMURA</t>
+  </si>
+  <si>
+    <t>TANG</t>
+  </si>
+  <si>
+    <t>Frédéric</t>
+  </si>
+  <si>
+    <t>TASSART</t>
+  </si>
+  <si>
+    <t>THERAGE</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>VANDEWOORDE</t>
+  </si>
+  <si>
+    <t>Aymeric</t>
+  </si>
+  <si>
+    <t>VANROY</t>
+  </si>
+  <si>
+    <t>VELLA</t>
+  </si>
+  <si>
+    <t>Emanuele</t>
+  </si>
+  <si>
+    <t>VERPOEST</t>
+  </si>
+  <si>
+    <t>Sylvain</t>
+  </si>
+  <si>
+    <t>WICART</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -37,28 +380,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,36 +700,1081 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.10" bestFit="true" style="0"/>
-    <col min="2" max="2" width="9.10" bestFit="true" style="0"/>
-    <col min="3" max="3" width="9.10" bestFit="true" style="0"/>
-    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
-    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20150926</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20150927</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20150928</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20150929</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20150930</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20150931</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20150932</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20150933</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20150934</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20150935</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20150936</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20150937</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20150938</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20150939</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20150940</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20150941</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20150942</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20150943</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20150944</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20150945</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20150946</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20150947</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20150948</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20150949</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20150950</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>20150951</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>20150952</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20150953</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20150954</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20150955</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20150956</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20150957</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20150958</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20150959</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20150960</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20150961</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20150962</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>20150963</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20150964</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20150965</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>20150966</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>20150967</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20150968</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20150969</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>20150970</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20150971</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>20150972</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>20150973</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>20150974</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>20150975</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>20150976</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>20150977</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>20150978</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>20150979</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>20150980</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>20150981</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>20150982</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>20150983</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>20150984</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>20150985</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>20150986</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/projetS5/public/INFO/2018-2019/INFO1/S1/UE11/PT1.xlsx
+++ b/projetS5/public/INFO/2018-2019/INFO1/S1/UE11/PT1.xlsx
@@ -732,7 +732,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20150926</v>
+        <v>20170926</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -744,12 +744,12 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20150927</v>
+        <v>20170927</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -761,12 +761,12 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20150928</v>
+        <v>20170928</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -778,12 +778,12 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20150929</v>
+        <v>20170929</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -795,12 +795,12 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20150930</v>
+        <v>20170930</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -812,12 +812,12 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20150931</v>
+        <v>20170931</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -829,12 +829,12 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20150932</v>
+        <v>20170932</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20150933</v>
+        <v>20170933</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -863,12 +863,12 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20150934</v>
+        <v>20170934</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -880,12 +880,12 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20150935</v>
+        <v>20170935</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20150936</v>
+        <v>20170936</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -914,12 +914,12 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20150937</v>
+        <v>20170937</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -931,12 +931,12 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20150938</v>
+        <v>20170938</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -948,12 +948,12 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20150939</v>
+        <v>20170939</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -965,12 +965,12 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20150940</v>
+        <v>20170940</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -982,12 +982,12 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20150941</v>
+        <v>20170941</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -999,12 +999,12 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20150942</v>
+        <v>20170942</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -1016,12 +1016,12 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20150943</v>
+        <v>20170943</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -1033,12 +1033,12 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20150944</v>
+        <v>20170944</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -1050,12 +1050,12 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20150945</v>
+        <v>20170945</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -1067,12 +1067,12 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20150946</v>
+        <v>20170946</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -1084,12 +1084,12 @@
         <v>14</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20150947</v>
+        <v>20170947</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -1101,12 +1101,12 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20150948</v>
+        <v>20170948</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1118,12 +1118,12 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20150949</v>
+        <v>20170949</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20150950</v>
+        <v>20170950</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -1152,12 +1152,12 @@
         <v>14</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20150951</v>
+        <v>20170951</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1169,12 +1169,12 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20150952</v>
+        <v>20170952</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1186,12 +1186,12 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20150953</v>
+        <v>20170953</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20150954</v>
+        <v>20170954</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -1220,12 +1220,12 @@
         <v>14</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20150955</v>
+        <v>20170955</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -1237,12 +1237,12 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20150956</v>
+        <v>20170956</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -1254,12 +1254,12 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20150957</v>
+        <v>20170957</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1271,12 +1271,12 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20150958</v>
+        <v>20170958</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -1288,12 +1288,12 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20150959</v>
+        <v>20170959</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -1305,12 +1305,12 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20150960</v>
+        <v>20170960</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
@@ -1322,12 +1322,12 @@
         <v>14</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20150961</v>
+        <v>20170961</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -1339,12 +1339,12 @@
         <v>14</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20150962</v>
+        <v>20170962</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
@@ -1356,12 +1356,12 @@
         <v>14</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20150963</v>
+        <v>20170963</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -1373,12 +1373,12 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20150964</v>
+        <v>20170964</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20150965</v>
+        <v>20170965</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
@@ -1407,12 +1407,12 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20150966</v>
+        <v>20170966</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -1424,12 +1424,12 @@
         <v>14</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20150967</v>
+        <v>20170967</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -1441,12 +1441,12 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20150968</v>
+        <v>20170968</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
@@ -1458,12 +1458,12 @@
         <v>11</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20150969</v>
+        <v>20170969</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -1475,12 +1475,12 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20150970</v>
+        <v>20170970</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -1492,12 +1492,12 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20150971</v>
+        <v>20170971</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
@@ -1509,12 +1509,12 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20150972</v>
+        <v>20170972</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
@@ -1526,12 +1526,12 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20150973</v>
+        <v>20170973</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
@@ -1543,12 +1543,12 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20150974</v>
+        <v>20170974</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -1560,12 +1560,12 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20150975</v>
+        <v>20170975</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
@@ -1577,12 +1577,12 @@
         <v>14</v>
       </c>
       <c r="E52">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20150976</v>
+        <v>20170976</v>
       </c>
       <c r="B53" t="s">
         <v>96</v>
@@ -1594,12 +1594,12 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20150977</v>
+        <v>20170977</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
@@ -1611,12 +1611,12 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20150978</v>
+        <v>20170978</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
@@ -1628,12 +1628,12 @@
         <v>11</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20150979</v>
+        <v>20170979</v>
       </c>
       <c r="B56" t="s">
         <v>101</v>
@@ -1645,12 +1645,12 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20150980</v>
+        <v>20170980</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20150981</v>
+        <v>20170981</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
@@ -1679,12 +1679,12 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20150982</v>
+        <v>20170982</v>
       </c>
       <c r="B59" t="s">
         <v>105</v>
@@ -1696,12 +1696,12 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20150983</v>
+        <v>20170983</v>
       </c>
       <c r="B60" t="s">
         <v>107</v>
@@ -1713,12 +1713,12 @@
         <v>14</v>
       </c>
       <c r="E60">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20150984</v>
+        <v>20170984</v>
       </c>
       <c r="B61" t="s">
         <v>108</v>
@@ -1730,12 +1730,12 @@
         <v>11</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20150985</v>
+        <v>20170985</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
@@ -1747,12 +1747,12 @@
         <v>14</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20150986</v>
+        <v>20170986</v>
       </c>
       <c r="B63" t="s">
         <v>112</v>
@@ -1764,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="E63">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
